--- a/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_5_Hemastix_CCA _202105.xlsx
+++ b/SCH-STH/Baseline Mapping/Angola/May 2021/ao_sch_sth_baseline_5_Hemastix_CCA _202105.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\SCH-STH\Baseline Mapping\Angola\May 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B72883-63F8-4A10-8FC5-3385D5E40141}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D4AFD4D-76FB-4341-8DEE-E2239405B789}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4006" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4009" uniqueCount="667">
   <si>
     <t>form_title</t>
   </si>
@@ -2019,6 +2019,18 @@
   </si>
   <si>
     <t xml:space="preserve">allow_choice_duplicates </t>
+  </si>
+  <si>
+    <t>. &gt; 514</t>
+  </si>
+  <si>
+    <t>The code must be greater than 514</t>
+  </si>
+  <si>
+    <t>O código deve ser maior que 514</t>
+  </si>
+  <si>
+    <t>integer</t>
   </si>
 </sst>
 </file>
@@ -2539,11 +2551,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2814,9 +2826,15 @@
       </c>
       <c r="H8" s="32"/>
       <c r="I8" s="36"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
+      <c r="J8" t="s">
+        <v>663</v>
+      </c>
+      <c r="K8" t="s">
+        <v>664</v>
+      </c>
+      <c r="L8" t="s">
+        <v>665</v>
+      </c>
       <c r="M8" s="33"/>
       <c r="N8" t="s">
         <v>651</v>
@@ -2832,7 +2850,7 @@
     </row>
     <row r="9" spans="1:18" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>21</v>
+        <v>666</v>
       </c>
       <c r="B9" s="35" t="s">
         <v>638</v>
@@ -21592,7 +21610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E2"/>
     </sheetView>
   </sheetViews>
